--- a/public/output.xlsx
+++ b/public/output.xlsx
@@ -11,24 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>N. riga</t>
+    <t>Item</t>
   </si>
   <si>
-    <t>Cod. articolo/Descrizione</t>
-  </si>
-  <si>
-    <t>Q.ty</t>
-  </si>
-  <si>
-    <t>P.U.</t>
-  </si>
-  <si>
-    <t>Importo</t>
-  </si>
-  <si>
-    <t>Data consegna</t>
+    <t>Short text</t>
   </si>
 </sst>
 </file>
@@ -405,27 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
